--- a/VIDA2/data/SALVADOR.xlsx
+++ b/VIDA2/data/SALVADOR.xlsx
@@ -465,13 +465,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7.192384769539078</v>
+        <v>7.308617234468938</v>
       </c>
       <c r="D2" t="n">
-        <v>140.1812254768166</v>
+        <v>135.9413687554488</v>
       </c>
       <c r="E2" t="n">
-        <v>50.79852512217244</v>
+        <v>50.57857994134966</v>
       </c>
     </row>
     <row r="3">
@@ -484,13 +484,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>8.586</v>
+        <v>8.73</v>
       </c>
       <c r="D3" t="n">
-        <v>137.3482156732156</v>
+        <v>134.1694036720932</v>
       </c>
       <c r="E3" t="n">
-        <v>50.21537351537352</v>
+        <v>47.06956116638774</v>
       </c>
     </row>
     <row r="4">
@@ -503,13 +503,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>8.932</v>
+        <v>9.0985</v>
       </c>
       <c r="D4" t="n">
-        <v>145.4511383611228</v>
+        <v>130.7519105486016</v>
       </c>
       <c r="E4" t="n">
-        <v>50.31455468336274</v>
+        <v>49.60327944114701</v>
       </c>
     </row>
     <row r="5">
@@ -522,13 +522,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>11.952</v>
+        <v>11.8715</v>
       </c>
       <c r="D5" t="n">
-        <v>135.5993150021632</v>
+        <v>131.6379319808418</v>
       </c>
       <c r="E5" t="n">
-        <v>45.4820843535549</v>
+        <v>48.91303984757918</v>
       </c>
     </row>
     <row r="6">
@@ -541,13 +541,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>8.016032064128256</v>
+        <v>8.042042042042041</v>
       </c>
       <c r="D6" t="n">
-        <v>135.5945431832499</v>
+        <v>131.8617394189287</v>
       </c>
       <c r="E6" t="n">
-        <v>48.67359872369892</v>
+        <v>48.34966799836075</v>
       </c>
     </row>
     <row r="7">
@@ -560,13 +560,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>12.786</v>
+        <v>12.664</v>
       </c>
       <c r="D7" t="n">
-        <v>124.1849009326045</v>
+        <v>133.8225536386668</v>
       </c>
       <c r="E7" t="n">
-        <v>42.94345547514207</v>
+        <v>46.97232602773963</v>
       </c>
     </row>
     <row r="8">
@@ -579,13 +579,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>9.182</v>
+        <v>9.225612806403202</v>
       </c>
       <c r="D8" t="n">
-        <v>119.1066852651992</v>
+        <v>134.7138002443594</v>
       </c>
       <c r="E8" t="n">
-        <v>42.52600320216418</v>
+        <v>49.37015676355927</v>
       </c>
     </row>
     <row r="9">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>10.032</v>
+        <v>9.865</v>
       </c>
       <c r="D9" t="n">
-        <v>130.8751501250726</v>
+        <v>130.2431841679129</v>
       </c>
       <c r="E9" t="n">
-        <v>49.48281028397127</v>
+        <v>46.5075775402787</v>
       </c>
     </row>
     <row r="10">
@@ -617,13 +617,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>7.088</v>
+        <v>7.0095</v>
       </c>
       <c r="D10" t="n">
-        <v>121.1059496059496</v>
+        <v>124.5121586746583</v>
       </c>
       <c r="E10" t="n">
-        <v>43.68734598734598</v>
+        <v>46.69825868575868</v>
       </c>
     </row>
     <row r="11">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>7.72</v>
+        <v>7.670335167583792</v>
       </c>
       <c r="D11" t="n">
-        <v>133.3729461714754</v>
+        <v>125.324922004434</v>
       </c>
       <c r="E11" t="n">
-        <v>49.85709372327016</v>
+        <v>43.30150811075094</v>
       </c>
     </row>
     <row r="12">
@@ -655,13 +655,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>13.4</v>
+        <v>13.2385</v>
       </c>
       <c r="D12" t="n">
-        <v>127.1766205750995</v>
+        <v>127.1043731014038</v>
       </c>
       <c r="E12" t="n">
-        <v>42.94694837289059</v>
+        <v>44.62783322874427</v>
       </c>
     </row>
     <row r="13">
@@ -674,13 +674,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>6.488</v>
+        <v>6.515531062124248</v>
       </c>
       <c r="D13" t="n">
-        <v>149.6639194139194</v>
+        <v>130.3760854487305</v>
       </c>
       <c r="E13" t="n">
-        <v>53.43662448662447</v>
+        <v>45.72072466611547</v>
       </c>
     </row>
     <row r="14">
@@ -693,13 +693,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>6.683366733466934</v>
+        <v>6.599299649824912</v>
       </c>
       <c r="D14" t="n">
-        <v>120.672241363624</v>
+        <v>131.213174297216</v>
       </c>
       <c r="E14" t="n">
-        <v>45.06007797590961</v>
+        <v>46.66160780467937</v>
       </c>
     </row>
     <row r="15">
@@ -712,13 +712,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>6.755511022044089</v>
+        <v>6.559118236472946</v>
       </c>
       <c r="D15" t="n">
-        <v>136.7361874375901</v>
+        <v>130.9525881043916</v>
       </c>
       <c r="E15" t="n">
-        <v>49.00886243571614</v>
+        <v>46.46673049729162</v>
       </c>
     </row>
     <row r="16">
@@ -731,13 +731,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>12.342</v>
+        <v>12.5365</v>
       </c>
       <c r="D16" t="n">
-        <v>122.7920444047211</v>
+        <v>134.238012104443</v>
       </c>
       <c r="E16" t="n">
-        <v>44.70257997637184</v>
+        <v>46.28484308240845</v>
       </c>
     </row>
     <row r="17">
@@ -750,13 +750,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>13.216</v>
+        <v>13.3775</v>
       </c>
       <c r="D17" t="n">
-        <v>131.0810519138658</v>
+        <v>131.5928200738527</v>
       </c>
       <c r="E17" t="n">
-        <v>47.3068031869418</v>
+        <v>47.18398142532644</v>
       </c>
     </row>
     <row r="18">
@@ -769,13 +769,13 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>6.589178356713427</v>
+        <v>6.58008008008008</v>
       </c>
       <c r="D18" t="n">
-        <v>120.3996098535176</v>
+        <v>130.7443769862069</v>
       </c>
       <c r="E18" t="n">
-        <v>45.84058504399182</v>
+        <v>46.21802906116633</v>
       </c>
     </row>
     <row r="19">
@@ -788,13 +788,13 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>11.488</v>
+        <v>11.617</v>
       </c>
       <c r="D19" t="n">
-        <v>138.047014674875</v>
+        <v>126.179037277446</v>
       </c>
       <c r="E19" t="n">
-        <v>47.72902265956176</v>
+        <v>46.19335868734839</v>
       </c>
     </row>
     <row r="20">
@@ -807,13 +807,13 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>12.28</v>
+        <v>12.3495</v>
       </c>
       <c r="D20" t="n">
-        <v>139.2673619604398</v>
+        <v>129.4624858607087</v>
       </c>
       <c r="E20" t="n">
-        <v>45.98594249448673</v>
+        <v>44.97228136425866</v>
       </c>
     </row>
     <row r="21">
@@ -826,13 +826,13 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>9.779999999999999</v>
+        <v>9.7515</v>
       </c>
       <c r="D21" t="n">
-        <v>130.637198259257</v>
+        <v>129.5742370525069</v>
       </c>
       <c r="E21" t="n">
-        <v>46.68642909378202</v>
+        <v>45.46618440469049</v>
       </c>
     </row>
     <row r="22">
@@ -845,13 +845,13 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>7.238</v>
+        <v>7.222611305652826</v>
       </c>
       <c r="D22" t="n">
-        <v>132.1918692418691</v>
+        <v>126.0733439665977</v>
       </c>
       <c r="E22" t="n">
-        <v>35.92952602952602</v>
+        <v>48.33131494093551</v>
       </c>
     </row>
     <row r="23">
@@ -864,13 +864,13 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>9.140000000000001</v>
+        <v>9.1455</v>
       </c>
       <c r="D23" t="n">
-        <v>132.5205001139211</v>
+        <v>124.3720615963842</v>
       </c>
       <c r="E23" t="n">
-        <v>46.44581777871248</v>
+        <v>43.85960990548828</v>
       </c>
     </row>
     <row r="24">
@@ -883,13 +883,13 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>7.014028056112225</v>
+        <v>6.876376376376377</v>
       </c>
       <c r="D24" t="n">
-        <v>148.5061142375771</v>
+        <v>131.9543036863296</v>
       </c>
       <c r="E24" t="n">
-        <v>52.54416035979158</v>
+        <v>44.7180016624461</v>
       </c>
     </row>
     <row r="25">
@@ -902,13 +902,13 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>9.098000000000001</v>
+        <v>9.114614614614617</v>
       </c>
       <c r="D25" t="n">
-        <v>125.2339880707526</v>
+        <v>122.7235920949368</v>
       </c>
       <c r="E25" t="n">
-        <v>45.28463007580649</v>
+        <v>44.91392721526878</v>
       </c>
     </row>
     <row r="26">
@@ -921,13 +921,13 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>12.026</v>
+        <v>12.1535</v>
       </c>
       <c r="D26" t="n">
-        <v>127.8509857187875</v>
+        <v>137.7704212166587</v>
       </c>
       <c r="E26" t="n">
-        <v>43.94888602969096</v>
+        <v>48.63452695890344</v>
       </c>
     </row>
     <row r="27">
@@ -940,13 +940,13 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>8.215999999999999</v>
+        <v>7.945945945945946</v>
       </c>
       <c r="D27" t="n">
-        <v>137.8282908268202</v>
+        <v>138.8422061517176</v>
       </c>
       <c r="E27" t="n">
-        <v>48.03072564690213</v>
+        <v>46.74437794277829</v>
       </c>
     </row>
     <row r="28">
@@ -959,13 +959,13 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>11.434</v>
+        <v>11.37</v>
       </c>
       <c r="D28" t="n">
-        <v>131.1083459368288</v>
+        <v>124.8401808710126</v>
       </c>
       <c r="E28" t="n">
-        <v>43.2469270925153</v>
+        <v>42.53101463520168</v>
       </c>
     </row>
     <row r="29">
@@ -978,13 +978,13 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>12.842</v>
+        <v>12.9065</v>
       </c>
       <c r="D29" t="n">
-        <v>125.708958607313</v>
+        <v>131.5821392567921</v>
       </c>
       <c r="E29" t="n">
-        <v>44.89244132163434</v>
+        <v>47.43721998033072</v>
       </c>
     </row>
     <row r="30">
@@ -997,13 +997,13 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>8.034000000000001</v>
+        <v>8.0885</v>
       </c>
       <c r="D30" t="n">
-        <v>123.3856143856143</v>
+        <v>129.0115663125141</v>
       </c>
       <c r="E30" t="n">
-        <v>44.42350149850149</v>
+        <v>46.12004705820492</v>
       </c>
     </row>
     <row r="31">
@@ -1016,13 +1016,13 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>8.898</v>
+        <v>8.739000000000001</v>
       </c>
       <c r="D31" t="n">
-        <v>135.5328854152382</v>
+        <v>130.6365601310451</v>
       </c>
       <c r="E31" t="n">
-        <v>49.27590628325921</v>
+        <v>47.91140081323901</v>
       </c>
     </row>
     <row r="32">
@@ -1035,13 +1035,13 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>9.622</v>
+        <v>9.791895947973988</v>
       </c>
       <c r="D32" t="n">
-        <v>125.34087607439</v>
+        <v>126.6314152658833</v>
       </c>
       <c r="E32" t="n">
-        <v>41.54478381096028</v>
+        <v>45.06827913889406</v>
       </c>
     </row>
     <row r="33">
@@ -1054,13 +1054,13 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>18.354</v>
+        <v>18.2455</v>
       </c>
       <c r="D33" t="n">
-        <v>140.6720657827886</v>
+        <v>134.4829362214069</v>
       </c>
       <c r="E33" t="n">
-        <v>51.96983244355939</v>
+        <v>47.84464593059631</v>
       </c>
     </row>
     <row r="34">
@@ -1073,13 +1073,13 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>14.032</v>
+        <v>13.7975</v>
       </c>
       <c r="D34" t="n">
-        <v>126.6126668245829</v>
+        <v>134.84719765711</v>
       </c>
       <c r="E34" t="n">
-        <v>44.62975363951942</v>
+        <v>47.61935345251805</v>
       </c>
     </row>
     <row r="35">
@@ -1092,13 +1092,13 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>21.884</v>
+        <v>22.2235</v>
       </c>
       <c r="D35" t="n">
-        <v>125.2096273124493</v>
+        <v>134.0215839388863</v>
       </c>
       <c r="E35" t="n">
-        <v>43.94524052017331</v>
+        <v>46.71587692189142</v>
       </c>
     </row>
     <row r="36">
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>18.354</v>
+        <v>19.1</v>
       </c>
       <c r="D36" t="n">
-        <v>111.954688392946</v>
+        <v>119.2032030894874</v>
       </c>
       <c r="E36" t="n">
-        <v>43.1464506111964</v>
+        <v>42.38859532634218</v>
       </c>
     </row>
     <row r="37">
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>27.304</v>
+        <v>27.3405</v>
       </c>
       <c r="D37" t="n">
-        <v>137.7882480723345</v>
+        <v>133.461451408346</v>
       </c>
       <c r="E37" t="n">
-        <v>45.8177136199737</v>
+        <v>48.72980377990888</v>
       </c>
     </row>
     <row r="38">
@@ -1149,13 +1149,13 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4.96579476861167</v>
+        <v>5.040201005025126</v>
       </c>
       <c r="D38" t="n">
-        <v>127.1659538762154</v>
+        <v>123.4819298512764</v>
       </c>
       <c r="E38" t="n">
-        <v>49.18007322433879</v>
+        <v>43.84307903152126</v>
       </c>
     </row>
     <row r="39">
@@ -1168,13 +1168,13 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>31.3</v>
+        <v>31.738</v>
       </c>
       <c r="D39" t="n">
-        <v>129.5644290225994</v>
+        <v>132.032607351489</v>
       </c>
       <c r="E39" t="n">
-        <v>47.10961203008887</v>
+        <v>45.83931377337912</v>
       </c>
     </row>
     <row r="40">
@@ -1187,13 +1187,13 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>21.982</v>
+        <v>21.9515</v>
       </c>
       <c r="D40" t="n">
-        <v>133.7871196598844</v>
+        <v>132.3112668951316</v>
       </c>
       <c r="E40" t="n">
-        <v>46.68485947654031</v>
+        <v>48.38104058459739</v>
       </c>
     </row>
     <row r="41">
@@ -1206,13 +1206,13 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>46.216</v>
+        <v>46.335</v>
       </c>
       <c r="D41" t="n">
-        <v>124.159901165906</v>
+        <v>125.3301178216857</v>
       </c>
       <c r="E41" t="n">
-        <v>44.21046229743138</v>
+        <v>45.70441744646406</v>
       </c>
     </row>
     <row r="42">
@@ -1225,13 +1225,13 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>20.398</v>
+        <v>19.9525</v>
       </c>
       <c r="D42" t="n">
-        <v>122.447408349504</v>
+        <v>131.5215958852914</v>
       </c>
       <c r="E42" t="n">
-        <v>46.59459140590173</v>
+        <v>47.44475238846928</v>
       </c>
     </row>
     <row r="43">
@@ -1244,13 +1244,13 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>14.822</v>
+        <v>14.97</v>
       </c>
       <c r="D43" t="n">
-        <v>123.6251068539055</v>
+        <v>125.4004644574206</v>
       </c>
       <c r="E43" t="n">
-        <v>45.84401477438023</v>
+        <v>45.01216965635849</v>
       </c>
     </row>
     <row r="44">
@@ -1263,13 +1263,13 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>28.368</v>
+        <v>28.096</v>
       </c>
       <c r="D44" t="n">
-        <v>124.3435894279851</v>
+        <v>127.478024145791</v>
       </c>
       <c r="E44" t="n">
-        <v>43.70818192506985</v>
+        <v>45.51321198751973</v>
       </c>
     </row>
     <row r="45">
@@ -1282,13 +1282,13 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>57.698</v>
+        <v>57.583</v>
       </c>
       <c r="D45" t="n">
-        <v>132.3507225770549</v>
+        <v>135.6758403305247</v>
       </c>
       <c r="E45" t="n">
-        <v>47.37022905202966</v>
+        <v>48.89879766087445</v>
       </c>
     </row>
     <row r="46">
@@ -1301,13 +1301,13 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>23.672</v>
+        <v>23.5</v>
       </c>
       <c r="D46" t="n">
-        <v>133.9634292097299</v>
+        <v>130.8369906277528</v>
       </c>
       <c r="E46" t="n">
-        <v>45.81345687035245</v>
+        <v>48.05591606030675</v>
       </c>
     </row>
     <row r="47">
@@ -1320,13 +1320,13 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>16.302</v>
+        <v>16.233</v>
       </c>
       <c r="D47" t="n">
-        <v>128.5034435653588</v>
+        <v>133.6921637496258</v>
       </c>
       <c r="E47" t="n">
-        <v>49.42581968880567</v>
+        <v>47.91756664291765</v>
       </c>
     </row>
     <row r="48">
@@ -1339,13 +1339,13 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3.182008368200837</v>
+        <v>3.179650238473768</v>
       </c>
       <c r="D48" t="n">
-        <v>152.8923424320914</v>
+        <v>135.821325527208</v>
       </c>
       <c r="E48" t="n">
-        <v>50.3021850302185</v>
+        <v>46.57935246170538</v>
       </c>
     </row>
     <row r="49">
@@ -1358,13 +1358,13 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>15.016</v>
+        <v>15.028</v>
       </c>
       <c r="D49" t="n">
-        <v>118.7999974844557</v>
+        <v>128.2333199515995</v>
       </c>
       <c r="E49" t="n">
-        <v>41.0830943456418</v>
+        <v>45.82479183013573</v>
       </c>
     </row>
     <row r="50">
@@ -1377,13 +1377,13 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5.923694779116466</v>
+        <v>5.914786967418546</v>
       </c>
       <c r="D50" t="n">
-        <v>144.2240546156208</v>
+        <v>138.7913460071796</v>
       </c>
       <c r="E50" t="n">
-        <v>55.3063625352782</v>
+        <v>51.52191674526928</v>
       </c>
     </row>
     <row r="51">
@@ -1396,13 +1396,13 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>19.478</v>
+        <v>19.5725</v>
       </c>
       <c r="D51" t="n">
-        <v>133.4391898275152</v>
+        <v>129.6184841747516</v>
       </c>
       <c r="E51" t="n">
-        <v>46.79346681396829</v>
+        <v>45.52184060208368</v>
       </c>
     </row>
     <row r="52">
@@ -1415,13 +1415,13 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>18.834</v>
+        <v>19.014</v>
       </c>
       <c r="D52" t="n">
-        <v>118.4223542809086</v>
+        <v>120.0253029122104</v>
       </c>
       <c r="E52" t="n">
-        <v>42.32196771715142</v>
+        <v>42.23750064449186</v>
       </c>
     </row>
     <row r="53">
@@ -1434,13 +1434,13 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>18.226</v>
+        <v>18.565</v>
       </c>
       <c r="D53" t="n">
-        <v>126.3435819141537</v>
+        <v>132.2151102535402</v>
       </c>
       <c r="E53" t="n">
-        <v>47.31281911689223</v>
+        <v>46.32024150431744</v>
       </c>
     </row>
     <row r="54">
@@ -1453,13 +1453,13 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>13.492</v>
+        <v>13.804</v>
       </c>
       <c r="D54" t="n">
-        <v>131.6471224106504</v>
+        <v>129.8204385518722</v>
       </c>
       <c r="E54" t="n">
-        <v>51.89291161755489</v>
+        <v>45.34202168951722</v>
       </c>
     </row>
     <row r="55">
@@ -1472,13 +1472,13 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>13.986</v>
+        <v>13.7925</v>
       </c>
       <c r="D55" t="n">
-        <v>126.8952318948059</v>
+        <v>130.3092490100584</v>
       </c>
       <c r="E55" t="n">
-        <v>48.09757634836111</v>
+        <v>46.34809814465128</v>
       </c>
     </row>
     <row r="56">
@@ -1491,13 +1491,13 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>23.304</v>
+        <v>23.4745</v>
       </c>
       <c r="D56" t="n">
-        <v>139.6089061295598</v>
+        <v>131.7140290788543</v>
       </c>
       <c r="E56" t="n">
-        <v>48.60169130236331</v>
+        <v>46.88227823306538</v>
       </c>
     </row>
     <row r="57">
@@ -1510,13 +1510,13 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>33.56</v>
+        <v>33.563</v>
       </c>
       <c r="D57" t="n">
-        <v>134.4661160514881</v>
+        <v>131.0256873030245</v>
       </c>
       <c r="E57" t="n">
-        <v>49.8478633628116</v>
+        <v>46.4243609848991</v>
       </c>
     </row>
     <row r="58">
@@ -1529,13 +1529,13 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>16.222</v>
+        <v>16.1945</v>
       </c>
       <c r="D58" t="n">
-        <v>130.1604235565092</v>
+        <v>127.8392734090354</v>
       </c>
       <c r="E58" t="n">
-        <v>49.19818079752257</v>
+        <v>44.66596477673743</v>
       </c>
     </row>
     <row r="59">
@@ -1548,13 +1548,13 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3.042643923240938</v>
+        <v>3.072120559741658</v>
       </c>
       <c r="D59" t="n">
-        <v>142.486546857549</v>
+        <v>139.7760862507903</v>
       </c>
       <c r="E59" t="n">
-        <v>55.20611229566453</v>
+        <v>48.91204059664771</v>
       </c>
     </row>
     <row r="60">
@@ -1567,13 +1567,13 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>13.354</v>
+        <v>13.398</v>
       </c>
       <c r="D60" t="n">
-        <v>119.2449852483707</v>
+        <v>122.6369882590447</v>
       </c>
       <c r="E60" t="n">
-        <v>44.04688867166993</v>
+        <v>42.08757896347152</v>
       </c>
     </row>
     <row r="61">
@@ -1586,13 +1586,13 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>56.382</v>
+        <v>56.485</v>
       </c>
       <c r="D61" t="n">
-        <v>131.3481506462617</v>
+        <v>133.1628709023582</v>
       </c>
       <c r="E61" t="n">
-        <v>48.0996369008497</v>
+        <v>47.69742381147027</v>
       </c>
     </row>
     <row r="62">
@@ -1605,13 +1605,13 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>21.312</v>
+        <v>21.189</v>
       </c>
       <c r="D62" t="n">
-        <v>136.2152700369132</v>
+        <v>128.8931866112664</v>
       </c>
       <c r="E62" t="n">
-        <v>47.7890536580399</v>
+        <v>47.02751600497253</v>
       </c>
     </row>
     <row r="63">
@@ -1624,13 +1624,13 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>24.97</v>
+        <v>25.161</v>
       </c>
       <c r="D63" t="n">
-        <v>127.5736903614018</v>
+        <v>129.6365436270644</v>
       </c>
       <c r="E63" t="n">
-        <v>47.67545110121807</v>
+        <v>45.42846677972207</v>
       </c>
     </row>
     <row r="64">
@@ -1643,13 +1643,13 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>30.746</v>
+        <v>30.672</v>
       </c>
       <c r="D64" t="n">
-        <v>138.0130594356079</v>
+        <v>136.7860459425282</v>
       </c>
       <c r="E64" t="n">
-        <v>46.12796364769286</v>
+        <v>48.37469155230248</v>
       </c>
     </row>
     <row r="65">
@@ -1662,13 +1662,13 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>13.398</v>
+        <v>13.532</v>
       </c>
       <c r="D65" t="n">
-        <v>132.2993713296021</v>
+        <v>141.0174087451287</v>
       </c>
       <c r="E65" t="n">
-        <v>43.86620721040221</v>
+        <v>50.15191066688193</v>
       </c>
     </row>
     <row r="66">
@@ -1681,13 +1681,13 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>19.94</v>
+        <v>19.6165</v>
       </c>
       <c r="D66" t="n">
-        <v>130.5732593236351</v>
+        <v>128.549469722257</v>
       </c>
       <c r="E66" t="n">
-        <v>46.05327001005669</v>
+        <v>44.93617618839636</v>
       </c>
     </row>
     <row r="67">
@@ -1700,13 +1700,13 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>9.442885771543086</v>
+        <v>9.452999999999999</v>
       </c>
       <c r="D67" t="n">
-        <v>122.9432935919437</v>
+        <v>127.0806429767341</v>
       </c>
       <c r="E67" t="n">
-        <v>38.0693888282595</v>
+        <v>46.00164290259099</v>
       </c>
     </row>
     <row r="68">
@@ -1719,13 +1719,13 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>13.842</v>
+        <v>14.0255</v>
       </c>
       <c r="D68" t="n">
-        <v>130.0380875853084</v>
+        <v>127.1619058003496</v>
       </c>
       <c r="E68" t="n">
-        <v>45.18088030110764</v>
+        <v>46.84251776286303</v>
       </c>
     </row>
     <row r="69">
@@ -1738,13 +1738,13 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>23.584</v>
+        <v>23.945</v>
       </c>
       <c r="D69" t="n">
-        <v>126.0945717591656</v>
+        <v>133.9670073312429</v>
       </c>
       <c r="E69" t="n">
-        <v>46.82839973305077</v>
+        <v>48.36329887334929</v>
       </c>
     </row>
     <row r="70">
@@ -1757,13 +1757,13 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>29.576</v>
+        <v>29.521</v>
       </c>
       <c r="D70" t="n">
-        <v>133.5199232178961</v>
+        <v>131.6504559838229</v>
       </c>
       <c r="E70" t="n">
-        <v>46.49794238205653</v>
+        <v>47.09719415887708</v>
       </c>
     </row>
     <row r="71">
@@ -1776,13 +1776,13 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>12.084</v>
+        <v>12.0245</v>
       </c>
       <c r="D71" t="n">
-        <v>135.0646556590983</v>
+        <v>134.1817537517184</v>
       </c>
       <c r="E71" t="n">
-        <v>49.54952512915361</v>
+        <v>49.11979984165325</v>
       </c>
     </row>
     <row r="72">
@@ -1795,13 +1795,13 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>30.342</v>
+        <v>30.88</v>
       </c>
       <c r="D72" t="n">
-        <v>135.0800257748116</v>
+        <v>130.7836825696095</v>
       </c>
       <c r="E72" t="n">
-        <v>49.65818734859617</v>
+        <v>47.88979860668849</v>
       </c>
     </row>
     <row r="73">
@@ -1814,13 +1814,13 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>36.67</v>
+        <v>36.6275</v>
       </c>
       <c r="D73" t="n">
-        <v>138.3849393284756</v>
+        <v>135.0349827476249</v>
       </c>
       <c r="E73" t="n">
-        <v>51.23960543679146</v>
+        <v>48.80974429289864</v>
       </c>
     </row>
     <row r="74">
@@ -1833,13 +1833,13 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>17.596</v>
+        <v>17.417</v>
       </c>
       <c r="D74" t="n">
-        <v>133.8487676797535</v>
+        <v>133.6582757893435</v>
       </c>
       <c r="E74" t="n">
-        <v>43.66794357895956</v>
+        <v>46.69088558442429</v>
       </c>
     </row>
     <row r="75">
@@ -1852,13 +1852,13 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>16.568</v>
+        <v>16.3745</v>
       </c>
       <c r="D75" t="n">
-        <v>127.1531621858496</v>
+        <v>127.0138409120148</v>
       </c>
       <c r="E75" t="n">
-        <v>46.6154664506111</v>
+        <v>44.79693087221029</v>
       </c>
     </row>
     <row r="76">
@@ -1871,13 +1871,13 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>17.37</v>
+        <v>17.305</v>
       </c>
       <c r="D76" t="n">
-        <v>136.1281182897807</v>
+        <v>134.5216326599665</v>
       </c>
       <c r="E76" t="n">
-        <v>47.86315904654914</v>
+        <v>49.46452827812595</v>
       </c>
     </row>
     <row r="77">
@@ -1890,13 +1890,13 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>44.938</v>
+        <v>45.134</v>
       </c>
       <c r="D77" t="n">
-        <v>115.057463024028</v>
+        <v>117.989146179279</v>
       </c>
       <c r="E77" t="n">
-        <v>41.34799779395985</v>
+        <v>42.90121073776624</v>
       </c>
     </row>
     <row r="78">
@@ -1909,13 +1909,13 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>33.15</v>
+        <v>33.446</v>
       </c>
       <c r="D78" t="n">
-        <v>132.1118759383716</v>
+        <v>132.1370640980252</v>
       </c>
       <c r="E78" t="n">
-        <v>47.01341433768032</v>
+        <v>48.09332256629578</v>
       </c>
     </row>
     <row r="79">
@@ -1928,13 +1928,13 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>12.604</v>
+        <v>12.883</v>
       </c>
       <c r="D79" t="n">
-        <v>113.2069343870859</v>
+        <v>123.222553395339</v>
       </c>
       <c r="E79" t="n">
-        <v>42.43978034050724</v>
+        <v>43.91727412315988</v>
       </c>
     </row>
     <row r="80">
@@ -1947,13 +1947,13 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>23.43</v>
+        <v>22.985</v>
       </c>
       <c r="D80" t="n">
-        <v>133.7847234724935</v>
+        <v>134.4835502328573</v>
       </c>
       <c r="E80" t="n">
-        <v>50.22907712921541</v>
+        <v>48.82678984499072</v>
       </c>
     </row>
     <row r="81">
@@ -1966,13 +1966,13 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>25.046</v>
+        <v>24.875</v>
       </c>
       <c r="D81" t="n">
-        <v>138.1131310065443</v>
+        <v>128.1305777110216</v>
       </c>
       <c r="E81" t="n">
-        <v>49.83116246894594</v>
+        <v>45.32128288032857</v>
       </c>
     </row>
     <row r="82">
@@ -1985,13 +1985,13 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>24.518</v>
+        <v>24.4165</v>
       </c>
       <c r="D82" t="n">
-        <v>129.2169110016814</v>
+        <v>129.1358692761524</v>
       </c>
       <c r="E82" t="n">
-        <v>45.65011064243002</v>
+        <v>45.76723630593109</v>
       </c>
     </row>
     <row r="83">
@@ -2004,13 +2004,13 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>13.43</v>
+        <v>12.822</v>
       </c>
       <c r="D83" t="n">
-        <v>130.9627067090938</v>
+        <v>129.2095116244824</v>
       </c>
       <c r="E83" t="n">
-        <v>44.77435375675113</v>
+        <v>46.40476198834063</v>
       </c>
     </row>
     <row r="84">
@@ -2023,13 +2023,13 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>12.548</v>
+        <v>12.491</v>
       </c>
       <c r="D84" t="n">
-        <v>137.4876286682013</v>
+        <v>126.0320712826157</v>
       </c>
       <c r="E84" t="n">
-        <v>45.05911834123903</v>
+        <v>45.84922520988669</v>
       </c>
     </row>
     <row r="85">
@@ -2042,13 +2042,13 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>25.726</v>
+        <v>25.9105</v>
       </c>
       <c r="D85" t="n">
-        <v>135.6936103286089</v>
+        <v>131.2976857036156</v>
       </c>
       <c r="E85" t="n">
-        <v>48.68178185563337</v>
+        <v>47.36446035067518</v>
       </c>
     </row>
     <row r="86">
@@ -2061,13 +2061,13 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>11.864</v>
+        <v>12.057</v>
       </c>
       <c r="D86" t="n">
-        <v>126.1308071099866</v>
+        <v>129.8684270066415</v>
       </c>
       <c r="E86" t="n">
-        <v>44.54433722452297</v>
+        <v>48.10470970686872</v>
       </c>
     </row>
     <row r="87">
@@ -2080,13 +2080,13 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>12.642</v>
+        <v>12.7495</v>
       </c>
       <c r="D87" t="n">
-        <v>129.1699421984366</v>
+        <v>126.3240589373346</v>
       </c>
       <c r="E87" t="n">
-        <v>47.69109720479487</v>
+        <v>45.80501314402138</v>
       </c>
     </row>
     <row r="88">
@@ -2099,13 +2099,13 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>15.952</v>
+        <v>15.928</v>
       </c>
       <c r="D88" t="n">
-        <v>128.8750289166089</v>
+        <v>128.8601875786079</v>
       </c>
       <c r="E88" t="n">
-        <v>44.80672589267503</v>
+        <v>47.52134712055305</v>
       </c>
     </row>
     <row r="89">
@@ -2118,13 +2118,13 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>12.974</v>
+        <v>13.167</v>
       </c>
       <c r="D89" t="n">
-        <v>125.3173741703774</v>
+        <v>124.3739020912007</v>
       </c>
       <c r="E89" t="n">
-        <v>43.11171494484189</v>
+        <v>44.33731062927582</v>
       </c>
     </row>
     <row r="90">
@@ -2137,13 +2137,13 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>16.47</v>
+        <v>16.336</v>
       </c>
       <c r="D90" t="n">
-        <v>136.521667853594</v>
+        <v>135.0308978143763</v>
       </c>
       <c r="E90" t="n">
-        <v>46.41518921041637</v>
+        <v>47.54510209039219</v>
       </c>
     </row>
     <row r="91">
@@ -2156,13 +2156,13 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>16.122</v>
+        <v>15.8895</v>
       </c>
       <c r="D91" t="n">
-        <v>112.2573892828188</v>
+        <v>113.6487453560322</v>
       </c>
       <c r="E91" t="n">
-        <v>37.73569776349692</v>
+        <v>40.1600927342127</v>
       </c>
     </row>
     <row r="92">
@@ -2175,13 +2175,13 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>20.184</v>
+        <v>19.9385</v>
       </c>
       <c r="D92" t="n">
-        <v>119.2472929450145</v>
+        <v>127.1407217546865</v>
       </c>
       <c r="E92" t="n">
-        <v>43.07719054359544</v>
+        <v>46.58521877990465</v>
       </c>
     </row>
     <row r="93">
@@ -2194,13 +2194,13 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>15.416</v>
+        <v>15.434</v>
       </c>
       <c r="D93" t="n">
-        <v>127.8374460632073</v>
+        <v>129.9608029894341</v>
       </c>
       <c r="E93" t="n">
-        <v>48.00090412093102</v>
+        <v>47.27068487391922</v>
       </c>
     </row>
     <row r="94">
@@ -2213,13 +2213,13 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>24.856</v>
+        <v>24.6435</v>
       </c>
       <c r="D94" t="n">
-        <v>122.6145690629166</v>
+        <v>128.0984098537488</v>
       </c>
       <c r="E94" t="n">
-        <v>41.61073586217244</v>
+        <v>45.4904865522316</v>
       </c>
     </row>
     <row r="95">
@@ -2232,13 +2232,13 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>7.138</v>
+        <v>7.121060530265132</v>
       </c>
       <c r="D95" t="n">
-        <v>144.9156343656343</v>
+        <v>129.2965816352507</v>
       </c>
       <c r="E95" t="n">
-        <v>55.00037740037736</v>
+        <v>49.13855529163182</v>
       </c>
     </row>
     <row r="96">
@@ -2251,13 +2251,13 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>8.44</v>
+        <v>8.4625</v>
       </c>
       <c r="D96" t="n">
-        <v>131.8649073149071</v>
+        <v>130.0060426617584</v>
       </c>
       <c r="E96" t="n">
-        <v>43.68379953379953</v>
+        <v>47.48939409189016</v>
       </c>
     </row>
     <row r="97">
@@ -2270,13 +2270,13 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>7.356</v>
+        <v>7.327827827827828</v>
       </c>
       <c r="D97" t="n">
-        <v>145.2087939837939</v>
+        <v>143.8006552987629</v>
       </c>
       <c r="E97" t="n">
-        <v>52.06788211788209</v>
+        <v>49.65749083396141</v>
       </c>
     </row>
     <row r="98">
@@ -2289,13 +2289,13 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>12.09</v>
+        <v>12.0565</v>
       </c>
       <c r="D98" t="n">
-        <v>138.7665159226438</v>
+        <v>131.2716850328218</v>
       </c>
       <c r="E98" t="n">
-        <v>46.78625276213444</v>
+        <v>47.72536555712191</v>
       </c>
     </row>
     <row r="99">
@@ -2308,13 +2308,13 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>6.934</v>
+        <v>7.0765</v>
       </c>
       <c r="D99" t="n">
-        <v>127.1178599178598</v>
+        <v>122.8199439449439</v>
       </c>
       <c r="E99" t="n">
-        <v>44.18954656454655</v>
+        <v>45.27159923409921</v>
       </c>
     </row>
     <row r="100">
@@ -2327,13 +2327,13 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>8.204000000000001</v>
+        <v>8.145572786393197</v>
       </c>
       <c r="D100" t="n">
-        <v>129.0154417477947</v>
+        <v>134.8639040342863</v>
       </c>
       <c r="E100" t="n">
-        <v>44.35014152514152</v>
+        <v>46.65787750851949</v>
       </c>
     </row>
     <row r="101">
@@ -2346,13 +2346,13 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>8.222</v>
+        <v>8.296648324162081</v>
       </c>
       <c r="D101" t="n">
-        <v>125.4038990421342</v>
+        <v>129.2247770389702</v>
       </c>
       <c r="E101" t="n">
-        <v>44.70620849738497</v>
+        <v>45.68329202079895</v>
       </c>
     </row>
     <row r="102">
@@ -2365,13 +2365,13 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>8.752000000000001</v>
+        <v>8.686</v>
       </c>
       <c r="D102" t="n">
-        <v>123.1572158233922</v>
+        <v>129.0642309981896</v>
       </c>
       <c r="E102" t="n">
-        <v>40.28993588111232</v>
+        <v>46.6624226049148</v>
       </c>
     </row>
     <row r="103">
@@ -2384,13 +2384,13 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>9.706</v>
+        <v>9.773886943471735</v>
       </c>
       <c r="D103" t="n">
-        <v>141.4662889741838</v>
+        <v>127.590876982678</v>
       </c>
       <c r="E103" t="n">
-        <v>48.40376567876564</v>
+        <v>45.74428764567555</v>
       </c>
     </row>
     <row r="104">
@@ -2403,13 +2403,13 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>12.708</v>
+        <v>12.776</v>
       </c>
       <c r="D104" t="n">
-        <v>129.2975231533247</v>
+        <v>126.5714899611029</v>
       </c>
       <c r="E104" t="n">
-        <v>47.33235117995179</v>
+        <v>45.06455198680891</v>
       </c>
     </row>
   </sheetData>

--- a/VIDA2/data/SALVADOR.xlsx
+++ b/VIDA2/data/SALVADOR.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -465,13 +465,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7.192384769539078</v>
+        <v>7.308617234468938</v>
       </c>
       <c r="D2" t="n">
-        <v>140.1812254768166</v>
+        <v>135.9413687554488</v>
       </c>
       <c r="E2" t="n">
-        <v>50.79852512217244</v>
+        <v>50.57857994134966</v>
       </c>
     </row>
     <row r="3">
@@ -484,13 +484,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>8.586</v>
+        <v>8.73</v>
       </c>
       <c r="D3" t="n">
-        <v>137.3482156732156</v>
+        <v>134.1694036720932</v>
       </c>
       <c r="E3" t="n">
-        <v>50.21537351537352</v>
+        <v>47.06956116638774</v>
       </c>
     </row>
     <row r="4">
@@ -503,13 +503,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>8.932</v>
+        <v>9.0985</v>
       </c>
       <c r="D4" t="n">
-        <v>145.4511383611228</v>
+        <v>130.7519105486016</v>
       </c>
       <c r="E4" t="n">
-        <v>50.31455468336274</v>
+        <v>49.60327944114701</v>
       </c>
     </row>
     <row r="5">
@@ -522,13 +522,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>11.952</v>
+        <v>11.8715</v>
       </c>
       <c r="D5" t="n">
-        <v>135.5993150021632</v>
+        <v>131.6379319808418</v>
       </c>
       <c r="E5" t="n">
-        <v>45.4820843535549</v>
+        <v>48.91303984757918</v>
       </c>
     </row>
     <row r="6">
@@ -541,13 +541,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>8.016032064128256</v>
+        <v>8.042042042042041</v>
       </c>
       <c r="D6" t="n">
-        <v>135.5945431832499</v>
+        <v>131.8617394189287</v>
       </c>
       <c r="E6" t="n">
-        <v>48.67359872369892</v>
+        <v>48.34966799836075</v>
       </c>
     </row>
     <row r="7">
@@ -560,13 +560,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>12.786</v>
+        <v>12.664</v>
       </c>
       <c r="D7" t="n">
-        <v>124.1849009326045</v>
+        <v>133.8225536386668</v>
       </c>
       <c r="E7" t="n">
-        <v>42.94345547514207</v>
+        <v>46.97232602773963</v>
       </c>
     </row>
     <row r="8">
@@ -579,13 +579,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>9.182</v>
+        <v>9.225612806403202</v>
       </c>
       <c r="D8" t="n">
-        <v>119.1066852651992</v>
+        <v>134.7138002443594</v>
       </c>
       <c r="E8" t="n">
-        <v>42.52600320216418</v>
+        <v>49.37015676355927</v>
       </c>
     </row>
     <row r="9">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>10.032</v>
+        <v>9.865</v>
       </c>
       <c r="D9" t="n">
-        <v>130.8751501250726</v>
+        <v>130.2431841679129</v>
       </c>
       <c r="E9" t="n">
-        <v>49.48281028397127</v>
+        <v>46.5075775402787</v>
       </c>
     </row>
     <row r="10">
@@ -617,13 +617,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>7.088</v>
+        <v>7.0095</v>
       </c>
       <c r="D10" t="n">
-        <v>121.1059496059496</v>
+        <v>124.5121586746583</v>
       </c>
       <c r="E10" t="n">
-        <v>43.68734598734598</v>
+        <v>46.69825868575868</v>
       </c>
     </row>
     <row r="11">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>7.72</v>
+        <v>7.670335167583792</v>
       </c>
       <c r="D11" t="n">
-        <v>133.3729461714754</v>
+        <v>125.324922004434</v>
       </c>
       <c r="E11" t="n">
-        <v>49.85709372327016</v>
+        <v>43.30150811075094</v>
       </c>
     </row>
     <row r="12">
@@ -655,13 +655,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>13.4</v>
+        <v>13.2385</v>
       </c>
       <c r="D12" t="n">
-        <v>127.1766205750995</v>
+        <v>127.1043731014038</v>
       </c>
       <c r="E12" t="n">
-        <v>42.94694837289059</v>
+        <v>44.62783322874427</v>
       </c>
     </row>
     <row r="13">
@@ -674,13 +674,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>6.488</v>
+        <v>6.515531062124248</v>
       </c>
       <c r="D13" t="n">
-        <v>149.6639194139194</v>
+        <v>130.3760854487305</v>
       </c>
       <c r="E13" t="n">
-        <v>53.43662448662447</v>
+        <v>45.72072466611547</v>
       </c>
     </row>
     <row r="14">
@@ -693,13 +693,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>6.683366733466934</v>
+        <v>6.599299649824912</v>
       </c>
       <c r="D14" t="n">
-        <v>120.672241363624</v>
+        <v>131.213174297216</v>
       </c>
       <c r="E14" t="n">
-        <v>45.06007797590961</v>
+        <v>46.66160780467937</v>
       </c>
     </row>
     <row r="15">
@@ -712,13 +712,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>6.755511022044089</v>
+        <v>6.559118236472946</v>
       </c>
       <c r="D15" t="n">
-        <v>136.7361874375901</v>
+        <v>130.9525881043916</v>
       </c>
       <c r="E15" t="n">
-        <v>49.00886243571614</v>
+        <v>46.46673049729162</v>
       </c>
     </row>
     <row r="16">
@@ -731,13 +731,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>12.342</v>
+        <v>12.5365</v>
       </c>
       <c r="D16" t="n">
-        <v>122.7920444047211</v>
+        <v>134.238012104443</v>
       </c>
       <c r="E16" t="n">
-        <v>44.70257997637184</v>
+        <v>46.28484308240845</v>
       </c>
     </row>
     <row r="17">
@@ -750,13 +750,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>13.216</v>
+        <v>13.3775</v>
       </c>
       <c r="D17" t="n">
-        <v>131.0810519138658</v>
+        <v>131.5928200738527</v>
       </c>
       <c r="E17" t="n">
-        <v>47.3068031869418</v>
+        <v>47.18398142532644</v>
       </c>
     </row>
     <row r="18">
@@ -769,13 +769,13 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>6.589178356713427</v>
+        <v>6.58008008008008</v>
       </c>
       <c r="D18" t="n">
-        <v>120.3996098535176</v>
+        <v>130.7443769862069</v>
       </c>
       <c r="E18" t="n">
-        <v>45.84058504399182</v>
+        <v>46.21802906116633</v>
       </c>
     </row>
     <row r="19">
@@ -788,13 +788,13 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>11.488</v>
+        <v>11.617</v>
       </c>
       <c r="D19" t="n">
-        <v>138.047014674875</v>
+        <v>126.179037277446</v>
       </c>
       <c r="E19" t="n">
-        <v>47.72902265956176</v>
+        <v>46.19335868734839</v>
       </c>
     </row>
     <row r="20">
@@ -807,13 +807,13 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>12.28</v>
+        <v>12.3495</v>
       </c>
       <c r="D20" t="n">
-        <v>139.2673619604398</v>
+        <v>129.4624858607087</v>
       </c>
       <c r="E20" t="n">
-        <v>45.98594249448673</v>
+        <v>44.97228136425866</v>
       </c>
     </row>
     <row r="21">
@@ -826,13 +826,13 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>9.779999999999999</v>
+        <v>9.7515</v>
       </c>
       <c r="D21" t="n">
-        <v>130.637198259257</v>
+        <v>129.5742370525069</v>
       </c>
       <c r="E21" t="n">
-        <v>46.68642909378202</v>
+        <v>45.46618440469049</v>
       </c>
     </row>
     <row r="22">
@@ -845,13 +845,13 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>7.238</v>
+        <v>7.222611305652826</v>
       </c>
       <c r="D22" t="n">
-        <v>132.1918692418691</v>
+        <v>126.0733439665977</v>
       </c>
       <c r="E22" t="n">
-        <v>35.92952602952602</v>
+        <v>48.33131494093551</v>
       </c>
     </row>
     <row r="23">
@@ -864,13 +864,13 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>9.140000000000001</v>
+        <v>9.1455</v>
       </c>
       <c r="D23" t="n">
-        <v>132.5205001139211</v>
+        <v>124.3720615963842</v>
       </c>
       <c r="E23" t="n">
-        <v>46.44581777871248</v>
+        <v>43.85960990548828</v>
       </c>
     </row>
     <row r="24">
@@ -883,13 +883,13 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>7.014028056112225</v>
+        <v>6.876376376376377</v>
       </c>
       <c r="D24" t="n">
-        <v>148.5061142375771</v>
+        <v>131.9543036863296</v>
       </c>
       <c r="E24" t="n">
-        <v>52.54416035979158</v>
+        <v>44.7180016624461</v>
       </c>
     </row>
     <row r="25">
@@ -902,13 +902,13 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>9.098000000000001</v>
+        <v>9.114614614614617</v>
       </c>
       <c r="D25" t="n">
-        <v>125.2339880707526</v>
+        <v>122.7235920949368</v>
       </c>
       <c r="E25" t="n">
-        <v>45.28463007580649</v>
+        <v>44.91392721526878</v>
       </c>
     </row>
     <row r="26">
@@ -921,13 +921,13 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>12.026</v>
+        <v>12.1535</v>
       </c>
       <c r="D26" t="n">
-        <v>127.8509857187875</v>
+        <v>137.7704212166587</v>
       </c>
       <c r="E26" t="n">
-        <v>43.94888602969096</v>
+        <v>48.63452695890344</v>
       </c>
     </row>
     <row r="27">
@@ -940,13 +940,13 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>8.215999999999999</v>
+        <v>7.945945945945946</v>
       </c>
       <c r="D27" t="n">
-        <v>137.8282908268202</v>
+        <v>138.8422061517176</v>
       </c>
       <c r="E27" t="n">
-        <v>48.03072564690213</v>
+        <v>46.74437794277829</v>
       </c>
     </row>
     <row r="28">
@@ -959,13 +959,13 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>11.434</v>
+        <v>11.37</v>
       </c>
       <c r="D28" t="n">
-        <v>131.1083459368288</v>
+        <v>124.8401808710126</v>
       </c>
       <c r="E28" t="n">
-        <v>43.2469270925153</v>
+        <v>42.53101463520168</v>
       </c>
     </row>
     <row r="29">
@@ -978,13 +978,13 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>12.842</v>
+        <v>12.9065</v>
       </c>
       <c r="D29" t="n">
-        <v>125.708958607313</v>
+        <v>131.5821392567921</v>
       </c>
       <c r="E29" t="n">
-        <v>44.89244132163434</v>
+        <v>47.43721998033072</v>
       </c>
     </row>
     <row r="30">
@@ -997,13 +997,13 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>8.034000000000001</v>
+        <v>8.0885</v>
       </c>
       <c r="D30" t="n">
-        <v>123.3856143856143</v>
+        <v>129.0115663125141</v>
       </c>
       <c r="E30" t="n">
-        <v>44.42350149850149</v>
+        <v>46.12004705820492</v>
       </c>
     </row>
     <row r="31">
@@ -1016,13 +1016,13 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>8.898</v>
+        <v>8.739000000000001</v>
       </c>
       <c r="D31" t="n">
-        <v>135.5328854152382</v>
+        <v>130.6365601310451</v>
       </c>
       <c r="E31" t="n">
-        <v>49.27590628325921</v>
+        <v>47.91140081323901</v>
       </c>
     </row>
     <row r="32">
@@ -1035,13 +1035,13 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>9.622</v>
+        <v>9.791895947973988</v>
       </c>
       <c r="D32" t="n">
-        <v>125.34087607439</v>
+        <v>126.6314152658833</v>
       </c>
       <c r="E32" t="n">
-        <v>41.54478381096028</v>
+        <v>45.06827913889406</v>
       </c>
     </row>
     <row r="33">
@@ -1054,13 +1054,13 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>18.354</v>
+        <v>18.2455</v>
       </c>
       <c r="D33" t="n">
-        <v>140.6720657827886</v>
+        <v>134.4829362214069</v>
       </c>
       <c r="E33" t="n">
-        <v>51.96983244355939</v>
+        <v>47.84464593059631</v>
       </c>
     </row>
     <row r="34">
@@ -1073,13 +1073,13 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>14.032</v>
+        <v>13.7975</v>
       </c>
       <c r="D34" t="n">
-        <v>126.6126668245829</v>
+        <v>134.84719765711</v>
       </c>
       <c r="E34" t="n">
-        <v>44.62975363951942</v>
+        <v>47.61935345251805</v>
       </c>
     </row>
     <row r="35">
@@ -1092,13 +1092,13 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>21.884</v>
+        <v>22.2235</v>
       </c>
       <c r="D35" t="n">
-        <v>125.2096273124493</v>
+        <v>134.0215839388863</v>
       </c>
       <c r="E35" t="n">
-        <v>43.94524052017331</v>
+        <v>46.71587692189142</v>
       </c>
     </row>
     <row r="36">
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>18.354</v>
+        <v>19.1</v>
       </c>
       <c r="D36" t="n">
-        <v>111.954688392946</v>
+        <v>119.2032030894874</v>
       </c>
       <c r="E36" t="n">
-        <v>43.1464506111964</v>
+        <v>42.38859532634218</v>
       </c>
     </row>
     <row r="37">
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>27.304</v>
+        <v>27.3405</v>
       </c>
       <c r="D37" t="n">
-        <v>137.7882480723345</v>
+        <v>133.461451408346</v>
       </c>
       <c r="E37" t="n">
-        <v>45.8177136199737</v>
+        <v>48.72980377990888</v>
       </c>
     </row>
     <row r="38">
@@ -1149,13 +1149,13 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4.96579476861167</v>
+        <v>5.040201005025126</v>
       </c>
       <c r="D38" t="n">
-        <v>127.1659538762154</v>
+        <v>123.4819298512764</v>
       </c>
       <c r="E38" t="n">
-        <v>49.18007322433879</v>
+        <v>43.84307903152126</v>
       </c>
     </row>
     <row r="39">
@@ -1168,13 +1168,13 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>31.3</v>
+        <v>31.738</v>
       </c>
       <c r="D39" t="n">
-        <v>129.5644290225994</v>
+        <v>132.032607351489</v>
       </c>
       <c r="E39" t="n">
-        <v>47.10961203008887</v>
+        <v>45.83931377337912</v>
       </c>
     </row>
     <row r="40">
@@ -1187,13 +1187,13 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>21.982</v>
+        <v>21.9515</v>
       </c>
       <c r="D40" t="n">
-        <v>133.7871196598844</v>
+        <v>132.3112668951316</v>
       </c>
       <c r="E40" t="n">
-        <v>46.68485947654031</v>
+        <v>48.38104058459739</v>
       </c>
     </row>
     <row r="41">
@@ -1206,13 +1206,13 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>46.216</v>
+        <v>46.335</v>
       </c>
       <c r="D41" t="n">
-        <v>124.159901165906</v>
+        <v>125.3301178216857</v>
       </c>
       <c r="E41" t="n">
-        <v>44.21046229743138</v>
+        <v>45.70441744646406</v>
       </c>
     </row>
     <row r="42">
@@ -1225,13 +1225,13 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>20.398</v>
+        <v>19.9525</v>
       </c>
       <c r="D42" t="n">
-        <v>122.447408349504</v>
+        <v>131.5215958852914</v>
       </c>
       <c r="E42" t="n">
-        <v>46.59459140590173</v>
+        <v>47.44475238846928</v>
       </c>
     </row>
     <row r="43">
@@ -1244,13 +1244,13 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>14.822</v>
+        <v>14.97</v>
       </c>
       <c r="D43" t="n">
-        <v>123.6251068539055</v>
+        <v>125.4004644574206</v>
       </c>
       <c r="E43" t="n">
-        <v>45.84401477438023</v>
+        <v>45.01216965635849</v>
       </c>
     </row>
     <row r="44">
@@ -1263,13 +1263,13 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>28.368</v>
+        <v>28.096</v>
       </c>
       <c r="D44" t="n">
-        <v>124.3435894279851</v>
+        <v>127.478024145791</v>
       </c>
       <c r="E44" t="n">
-        <v>43.70818192506985</v>
+        <v>45.51321198751973</v>
       </c>
     </row>
     <row r="45">
@@ -1282,13 +1282,13 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>57.698</v>
+        <v>57.583</v>
       </c>
       <c r="D45" t="n">
-        <v>132.3507225770549</v>
+        <v>135.6758403305247</v>
       </c>
       <c r="E45" t="n">
-        <v>47.37022905202966</v>
+        <v>48.89879766087445</v>
       </c>
     </row>
     <row r="46">
@@ -1301,13 +1301,13 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>23.672</v>
+        <v>23.5</v>
       </c>
       <c r="D46" t="n">
-        <v>133.9634292097299</v>
+        <v>130.8369906277528</v>
       </c>
       <c r="E46" t="n">
-        <v>45.81345687035245</v>
+        <v>48.05591606030675</v>
       </c>
     </row>
     <row r="47">
@@ -1320,13 +1320,13 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>16.302</v>
+        <v>16.233</v>
       </c>
       <c r="D47" t="n">
-        <v>128.5034435653588</v>
+        <v>133.6921637496258</v>
       </c>
       <c r="E47" t="n">
-        <v>49.42581968880567</v>
+        <v>47.91756664291765</v>
       </c>
     </row>
     <row r="48">
@@ -1339,13 +1339,13 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3.182008368200837</v>
+        <v>3.179650238473768</v>
       </c>
       <c r="D48" t="n">
-        <v>152.8923424320914</v>
+        <v>135.821325527208</v>
       </c>
       <c r="E48" t="n">
-        <v>50.3021850302185</v>
+        <v>46.57935246170538</v>
       </c>
     </row>
     <row r="49">
@@ -1358,13 +1358,13 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>15.016</v>
+        <v>15.028</v>
       </c>
       <c r="D49" t="n">
-        <v>118.7999974844557</v>
+        <v>128.2333199515995</v>
       </c>
       <c r="E49" t="n">
-        <v>41.0830943456418</v>
+        <v>45.82479183013573</v>
       </c>
     </row>
     <row r="50">
@@ -1377,13 +1377,13 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5.923694779116466</v>
+        <v>5.914786967418546</v>
       </c>
       <c r="D50" t="n">
-        <v>144.2240546156208</v>
+        <v>138.7913460071796</v>
       </c>
       <c r="E50" t="n">
-        <v>55.3063625352782</v>
+        <v>51.52191674526928</v>
       </c>
     </row>
     <row r="51">
@@ -1396,13 +1396,13 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>19.478</v>
+        <v>19.5725</v>
       </c>
       <c r="D51" t="n">
-        <v>133.4391898275152</v>
+        <v>129.6184841747516</v>
       </c>
       <c r="E51" t="n">
-        <v>46.79346681396829</v>
+        <v>45.52184060208368</v>
       </c>
     </row>
     <row r="52">
@@ -1415,13 +1415,13 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>18.834</v>
+        <v>19.014</v>
       </c>
       <c r="D52" t="n">
-        <v>118.4223542809086</v>
+        <v>120.0253029122104</v>
       </c>
       <c r="E52" t="n">
-        <v>42.32196771715142</v>
+        <v>42.23750064449186</v>
       </c>
     </row>
     <row r="53">
@@ -1434,13 +1434,13 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>18.226</v>
+        <v>18.565</v>
       </c>
       <c r="D53" t="n">
-        <v>126.3435819141537</v>
+        <v>132.2151102535402</v>
       </c>
       <c r="E53" t="n">
-        <v>47.31281911689223</v>
+        <v>46.32024150431744</v>
       </c>
     </row>
     <row r="54">
@@ -1453,13 +1453,13 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>13.492</v>
+        <v>13.804</v>
       </c>
       <c r="D54" t="n">
-        <v>131.6471224106504</v>
+        <v>129.8204385518722</v>
       </c>
       <c r="E54" t="n">
-        <v>51.89291161755489</v>
+        <v>45.34202168951722</v>
       </c>
     </row>
     <row r="55">
@@ -1472,13 +1472,13 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>13.986</v>
+        <v>13.7925</v>
       </c>
       <c r="D55" t="n">
-        <v>126.8952318948059</v>
+        <v>130.3092490100584</v>
       </c>
       <c r="E55" t="n">
-        <v>48.09757634836111</v>
+        <v>46.34809814465128</v>
       </c>
     </row>
     <row r="56">
@@ -1491,13 +1491,13 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>23.304</v>
+        <v>23.4745</v>
       </c>
       <c r="D56" t="n">
-        <v>139.6089061295598</v>
+        <v>131.7140290788543</v>
       </c>
       <c r="E56" t="n">
-        <v>48.60169130236331</v>
+        <v>46.88227823306538</v>
       </c>
     </row>
     <row r="57">
@@ -1510,13 +1510,13 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>33.56</v>
+        <v>33.563</v>
       </c>
       <c r="D57" t="n">
-        <v>134.4661160514881</v>
+        <v>131.0256873030245</v>
       </c>
       <c r="E57" t="n">
-        <v>49.8478633628116</v>
+        <v>46.4243609848991</v>
       </c>
     </row>
     <row r="58">
@@ -1529,13 +1529,13 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>16.222</v>
+        <v>16.1945</v>
       </c>
       <c r="D58" t="n">
-        <v>130.1604235565092</v>
+        <v>127.8392734090354</v>
       </c>
       <c r="E58" t="n">
-        <v>49.19818079752257</v>
+        <v>44.66596477673743</v>
       </c>
     </row>
     <row r="59">
@@ -1548,13 +1548,13 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3.042643923240938</v>
+        <v>3.072120559741658</v>
       </c>
       <c r="D59" t="n">
-        <v>142.486546857549</v>
+        <v>139.7760862507903</v>
       </c>
       <c r="E59" t="n">
-        <v>55.20611229566453</v>
+        <v>48.91204059664771</v>
       </c>
     </row>
     <row r="60">
@@ -1567,13 +1567,13 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>13.354</v>
+        <v>13.398</v>
       </c>
       <c r="D60" t="n">
-        <v>119.2449852483707</v>
+        <v>122.6369882590447</v>
       </c>
       <c r="E60" t="n">
-        <v>44.04688867166993</v>
+        <v>42.08757896347152</v>
       </c>
     </row>
     <row r="61">
@@ -1586,13 +1586,13 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>56.382</v>
+        <v>56.485</v>
       </c>
       <c r="D61" t="n">
-        <v>131.3481506462617</v>
+        <v>133.1628709023582</v>
       </c>
       <c r="E61" t="n">
-        <v>48.0996369008497</v>
+        <v>47.69742381147027</v>
       </c>
     </row>
     <row r="62">
@@ -1605,13 +1605,13 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>21.312</v>
+        <v>21.189</v>
       </c>
       <c r="D62" t="n">
-        <v>136.2152700369132</v>
+        <v>128.8931866112664</v>
       </c>
       <c r="E62" t="n">
-        <v>47.7890536580399</v>
+        <v>47.02751600497253</v>
       </c>
     </row>
     <row r="63">
@@ -1624,13 +1624,13 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>24.97</v>
+        <v>25.161</v>
       </c>
       <c r="D63" t="n">
-        <v>127.5736903614018</v>
+        <v>129.6365436270644</v>
       </c>
       <c r="E63" t="n">
-        <v>47.67545110121807</v>
+        <v>45.42846677972207</v>
       </c>
     </row>
     <row r="64">
@@ -1643,13 +1643,13 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>30.746</v>
+        <v>30.672</v>
       </c>
       <c r="D64" t="n">
-        <v>138.0130594356079</v>
+        <v>136.7860459425282</v>
       </c>
       <c r="E64" t="n">
-        <v>46.12796364769286</v>
+        <v>48.37469155230248</v>
       </c>
     </row>
     <row r="65">
@@ -1662,13 +1662,13 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>13.398</v>
+        <v>13.532</v>
       </c>
       <c r="D65" t="n">
-        <v>132.2993713296021</v>
+        <v>141.0174087451287</v>
       </c>
       <c r="E65" t="n">
-        <v>43.86620721040221</v>
+        <v>50.15191066688193</v>
       </c>
     </row>
     <row r="66">
@@ -1681,13 +1681,13 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>19.94</v>
+        <v>19.6165</v>
       </c>
       <c r="D66" t="n">
-        <v>130.5732593236351</v>
+        <v>128.549469722257</v>
       </c>
       <c r="E66" t="n">
-        <v>46.05327001005669</v>
+        <v>44.93617618839636</v>
       </c>
     </row>
     <row r="67">
@@ -1700,13 +1700,13 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>9.442885771543086</v>
+        <v>9.452999999999999</v>
       </c>
       <c r="D67" t="n">
-        <v>122.9432935919437</v>
+        <v>127.0806429767341</v>
       </c>
       <c r="E67" t="n">
-        <v>38.0693888282595</v>
+        <v>46.00164290259099</v>
       </c>
     </row>
     <row r="68">
@@ -1719,13 +1719,13 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>13.842</v>
+        <v>14.0255</v>
       </c>
       <c r="D68" t="n">
-        <v>130.0380875853084</v>
+        <v>127.1619058003496</v>
       </c>
       <c r="E68" t="n">
-        <v>45.18088030110764</v>
+        <v>46.84251776286303</v>
       </c>
     </row>
     <row r="69">
@@ -1738,13 +1738,13 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>23.584</v>
+        <v>23.945</v>
       </c>
       <c r="D69" t="n">
-        <v>126.0945717591656</v>
+        <v>133.9670073312429</v>
       </c>
       <c r="E69" t="n">
-        <v>46.82839973305077</v>
+        <v>48.36329887334929</v>
       </c>
     </row>
     <row r="70">
@@ -1757,13 +1757,13 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>29.576</v>
+        <v>29.521</v>
       </c>
       <c r="D70" t="n">
-        <v>133.5199232178961</v>
+        <v>131.6504559838229</v>
       </c>
       <c r="E70" t="n">
-        <v>46.49794238205653</v>
+        <v>47.09719415887708</v>
       </c>
     </row>
     <row r="71">
@@ -1776,13 +1776,13 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>12.084</v>
+        <v>12.0245</v>
       </c>
       <c r="D71" t="n">
-        <v>135.0646556590983</v>
+        <v>134.1817537517184</v>
       </c>
       <c r="E71" t="n">
-        <v>49.54952512915361</v>
+        <v>49.11979984165325</v>
       </c>
     </row>
     <row r="72">
@@ -1795,13 +1795,13 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>30.342</v>
+        <v>30.88</v>
       </c>
       <c r="D72" t="n">
-        <v>135.0800257748116</v>
+        <v>130.7836825696095</v>
       </c>
       <c r="E72" t="n">
-        <v>49.65818734859617</v>
+        <v>47.88979860668849</v>
       </c>
     </row>
     <row r="73">
@@ -1814,13 +1814,13 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>36.67</v>
+        <v>36.6275</v>
       </c>
       <c r="D73" t="n">
-        <v>138.3849393284756</v>
+        <v>135.0349827476249</v>
       </c>
       <c r="E73" t="n">
-        <v>51.23960543679146</v>
+        <v>48.80974429289864</v>
       </c>
     </row>
     <row r="74">
@@ -1833,13 +1833,13 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>17.596</v>
+        <v>17.417</v>
       </c>
       <c r="D74" t="n">
-        <v>133.8487676797535</v>
+        <v>133.6582757893435</v>
       </c>
       <c r="E74" t="n">
-        <v>43.66794357895956</v>
+        <v>46.69088558442429</v>
       </c>
     </row>
     <row r="75">
@@ -1852,13 +1852,13 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>16.568</v>
+        <v>16.3745</v>
       </c>
       <c r="D75" t="n">
-        <v>127.1531621858496</v>
+        <v>127.0138409120148</v>
       </c>
       <c r="E75" t="n">
-        <v>46.6154664506111</v>
+        <v>44.79693087221029</v>
       </c>
     </row>
     <row r="76">
@@ -1871,13 +1871,13 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>17.37</v>
+        <v>17.305</v>
       </c>
       <c r="D76" t="n">
-        <v>136.1281182897807</v>
+        <v>134.5216326599665</v>
       </c>
       <c r="E76" t="n">
-        <v>47.86315904654914</v>
+        <v>49.46452827812595</v>
       </c>
     </row>
     <row r="77">
@@ -1890,13 +1890,13 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>44.938</v>
+        <v>45.134</v>
       </c>
       <c r="D77" t="n">
-        <v>115.057463024028</v>
+        <v>117.989146179279</v>
       </c>
       <c r="E77" t="n">
-        <v>41.34799779395985</v>
+        <v>42.90121073776624</v>
       </c>
     </row>
     <row r="78">
@@ -1909,13 +1909,13 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>33.15</v>
+        <v>33.446</v>
       </c>
       <c r="D78" t="n">
-        <v>132.1118759383716</v>
+        <v>132.1370640980252</v>
       </c>
       <c r="E78" t="n">
-        <v>47.01341433768032</v>
+        <v>48.09332256629578</v>
       </c>
     </row>
     <row r="79">
@@ -1928,13 +1928,13 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>12.604</v>
+        <v>12.883</v>
       </c>
       <c r="D79" t="n">
-        <v>113.2069343870859</v>
+        <v>123.222553395339</v>
       </c>
       <c r="E79" t="n">
-        <v>42.43978034050724</v>
+        <v>43.91727412315988</v>
       </c>
     </row>
     <row r="80">
@@ -1947,13 +1947,13 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>23.43</v>
+        <v>22.985</v>
       </c>
       <c r="D80" t="n">
-        <v>133.7847234724935</v>
+        <v>134.4835502328573</v>
       </c>
       <c r="E80" t="n">
-        <v>50.22907712921541</v>
+        <v>48.82678984499072</v>
       </c>
     </row>
     <row r="81">
@@ -1966,13 +1966,13 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>25.046</v>
+        <v>24.875</v>
       </c>
       <c r="D81" t="n">
-        <v>138.1131310065443</v>
+        <v>128.1305777110216</v>
       </c>
       <c r="E81" t="n">
-        <v>49.83116246894594</v>
+        <v>45.32128288032857</v>
       </c>
     </row>
     <row r="82">
@@ -1985,13 +1985,13 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>24.518</v>
+        <v>24.4165</v>
       </c>
       <c r="D82" t="n">
-        <v>129.2169110016814</v>
+        <v>129.1358692761524</v>
       </c>
       <c r="E82" t="n">
-        <v>45.65011064243002</v>
+        <v>45.76723630593109</v>
       </c>
     </row>
     <row r="83">
@@ -2004,13 +2004,13 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>13.43</v>
+        <v>12.822</v>
       </c>
       <c r="D83" t="n">
-        <v>130.9627067090938</v>
+        <v>129.2095116244824</v>
       </c>
       <c r="E83" t="n">
-        <v>44.77435375675113</v>
+        <v>46.40476198834063</v>
       </c>
     </row>
     <row r="84">
@@ -2023,13 +2023,13 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>12.548</v>
+        <v>12.491</v>
       </c>
       <c r="D84" t="n">
-        <v>137.4876286682013</v>
+        <v>126.0320712826157</v>
       </c>
       <c r="E84" t="n">
-        <v>45.05911834123903</v>
+        <v>45.84922520988669</v>
       </c>
     </row>
     <row r="85">
@@ -2042,13 +2042,13 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>25.726</v>
+        <v>25.9105</v>
       </c>
       <c r="D85" t="n">
-        <v>135.6936103286089</v>
+        <v>131.2976857036156</v>
       </c>
       <c r="E85" t="n">
-        <v>48.68178185563337</v>
+        <v>47.36446035067518</v>
       </c>
     </row>
     <row r="86">
@@ -2061,13 +2061,13 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>11.864</v>
+        <v>12.057</v>
       </c>
       <c r="D86" t="n">
-        <v>126.1308071099866</v>
+        <v>129.8684270066415</v>
       </c>
       <c r="E86" t="n">
-        <v>44.54433722452297</v>
+        <v>48.10470970686872</v>
       </c>
     </row>
     <row r="87">
@@ -2080,13 +2080,13 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>12.642</v>
+        <v>12.7495</v>
       </c>
       <c r="D87" t="n">
-        <v>129.1699421984366</v>
+        <v>126.3240589373346</v>
       </c>
       <c r="E87" t="n">
-        <v>47.69109720479487</v>
+        <v>45.80501314402138</v>
       </c>
     </row>
     <row r="88">
@@ -2099,13 +2099,13 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>15.952</v>
+        <v>15.928</v>
       </c>
       <c r="D88" t="n">
-        <v>128.8750289166089</v>
+        <v>128.8601875786079</v>
       </c>
       <c r="E88" t="n">
-        <v>44.80672589267503</v>
+        <v>47.52134712055305</v>
       </c>
     </row>
     <row r="89">
@@ -2118,13 +2118,13 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>12.974</v>
+        <v>13.167</v>
       </c>
       <c r="D89" t="n">
-        <v>125.3173741703774</v>
+        <v>124.3739020912007</v>
       </c>
       <c r="E89" t="n">
-        <v>43.11171494484189</v>
+        <v>44.33731062927582</v>
       </c>
     </row>
     <row r="90">
@@ -2137,13 +2137,13 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>16.47</v>
+        <v>16.336</v>
       </c>
       <c r="D90" t="n">
-        <v>136.521667853594</v>
+        <v>135.0308978143763</v>
       </c>
       <c r="E90" t="n">
-        <v>46.41518921041637</v>
+        <v>47.54510209039219</v>
       </c>
     </row>
     <row r="91">
@@ -2156,13 +2156,13 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>16.122</v>
+        <v>15.8895</v>
       </c>
       <c r="D91" t="n">
-        <v>112.2573892828188</v>
+        <v>113.6487453560322</v>
       </c>
       <c r="E91" t="n">
-        <v>37.73569776349692</v>
+        <v>40.1600927342127</v>
       </c>
     </row>
     <row r="92">
@@ -2175,13 +2175,13 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>20.184</v>
+        <v>19.9385</v>
       </c>
       <c r="D92" t="n">
-        <v>119.2472929450145</v>
+        <v>127.1407217546865</v>
       </c>
       <c r="E92" t="n">
-        <v>43.07719054359544</v>
+        <v>46.58521877990465</v>
       </c>
     </row>
     <row r="93">
@@ -2194,13 +2194,13 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>15.416</v>
+        <v>15.434</v>
       </c>
       <c r="D93" t="n">
-        <v>127.8374460632073</v>
+        <v>129.9608029894341</v>
       </c>
       <c r="E93" t="n">
-        <v>48.00090412093102</v>
+        <v>47.27068487391922</v>
       </c>
     </row>
     <row r="94">
@@ -2213,13 +2213,13 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>24.856</v>
+        <v>24.6435</v>
       </c>
       <c r="D94" t="n">
-        <v>122.6145690629166</v>
+        <v>128.0984098537488</v>
       </c>
       <c r="E94" t="n">
-        <v>41.61073586217244</v>
+        <v>45.4904865522316</v>
       </c>
     </row>
     <row r="95">
@@ -2232,13 +2232,13 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>7.138</v>
+        <v>7.121060530265132</v>
       </c>
       <c r="D95" t="n">
-        <v>144.9156343656343</v>
+        <v>129.2965816352507</v>
       </c>
       <c r="E95" t="n">
-        <v>55.00037740037736</v>
+        <v>49.13855529163182</v>
       </c>
     </row>
     <row r="96">
@@ -2251,13 +2251,13 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>8.44</v>
+        <v>8.4625</v>
       </c>
       <c r="D96" t="n">
-        <v>131.8649073149071</v>
+        <v>130.0060426617584</v>
       </c>
       <c r="E96" t="n">
-        <v>43.68379953379953</v>
+        <v>47.48939409189016</v>
       </c>
     </row>
     <row r="97">
@@ -2270,13 +2270,13 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>7.356</v>
+        <v>7.327827827827828</v>
       </c>
       <c r="D97" t="n">
-        <v>145.2087939837939</v>
+        <v>143.8006552987629</v>
       </c>
       <c r="E97" t="n">
-        <v>52.06788211788209</v>
+        <v>49.65749083396141</v>
       </c>
     </row>
     <row r="98">
@@ -2289,13 +2289,13 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>12.09</v>
+        <v>12.0565</v>
       </c>
       <c r="D98" t="n">
-        <v>138.7665159226438</v>
+        <v>131.2716850328218</v>
       </c>
       <c r="E98" t="n">
-        <v>46.78625276213444</v>
+        <v>47.72536555712191</v>
       </c>
     </row>
     <row r="99">
@@ -2308,13 +2308,13 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>6.934</v>
+        <v>7.0765</v>
       </c>
       <c r="D99" t="n">
-        <v>127.1178599178598</v>
+        <v>122.8199439449439</v>
       </c>
       <c r="E99" t="n">
-        <v>44.18954656454655</v>
+        <v>45.27159923409921</v>
       </c>
     </row>
     <row r="100">
@@ -2327,13 +2327,13 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>8.204000000000001</v>
+        <v>8.145572786393197</v>
       </c>
       <c r="D100" t="n">
-        <v>129.0154417477947</v>
+        <v>134.8639040342863</v>
       </c>
       <c r="E100" t="n">
-        <v>44.35014152514152</v>
+        <v>46.65787750851949</v>
       </c>
     </row>
     <row r="101">
@@ -2346,13 +2346,13 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>8.222</v>
+        <v>8.296648324162081</v>
       </c>
       <c r="D101" t="n">
-        <v>125.4038990421342</v>
+        <v>129.2247770389702</v>
       </c>
       <c r="E101" t="n">
-        <v>44.70620849738497</v>
+        <v>45.68329202079895</v>
       </c>
     </row>
     <row r="102">
@@ -2365,13 +2365,13 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>8.752000000000001</v>
+        <v>8.686</v>
       </c>
       <c r="D102" t="n">
-        <v>123.1572158233922</v>
+        <v>129.0642309981896</v>
       </c>
       <c r="E102" t="n">
-        <v>40.28993588111232</v>
+        <v>46.6624226049148</v>
       </c>
     </row>
     <row r="103">
@@ -2384,13 +2384,13 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>9.706</v>
+        <v>9.773886943471735</v>
       </c>
       <c r="D103" t="n">
-        <v>141.4662889741838</v>
+        <v>127.590876982678</v>
       </c>
       <c r="E103" t="n">
-        <v>48.40376567876564</v>
+        <v>45.74428764567555</v>
       </c>
     </row>
     <row r="104">
@@ -2403,13 +2403,13 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>12.708</v>
+        <v>12.776</v>
       </c>
       <c r="D104" t="n">
-        <v>129.2975231533247</v>
+        <v>126.5714899611029</v>
       </c>
       <c r="E104" t="n">
-        <v>47.33235117995179</v>
+        <v>45.06455198680891</v>
       </c>
     </row>
   </sheetData>

--- a/VIDA2/data/SALVADOR.xlsx
+++ b/VIDA2/data/SALVADOR.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
